--- a/biology/Botanique/Ballota_acetabulosa/Ballota_acetabulosa.xlsx
+++ b/biology/Botanique/Ballota_acetabulosa/Ballota_acetabulosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ballota acetabulosa est une espèce de plantes à fleurs de la famille des Lamiaceae, originaire de Grèce, de la Crète et de Turquie.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Beringeria acetabulosa (L.) Neck.
 Marrubium acetabulosum L.
@@ -545,7 +559,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de l'espèce acetabulosa vient du latin et désigne une petite coupelle. Il a été attribué en référence à la forme du calice de la fleur.
 </t>
@@ -576,9 +592,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de Grèce continentale, des îles, de Crête et de Turquie[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de Grèce continentale, des îles, de Crête et de Turquie.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée haute de 50 à 80 cm, en touffe au port dressé.
 Feuilles velues, épaisses, vert pale, arrondies et légèrement dentées
@@ -642,7 +662,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Rochers et murs calcaire.
 </t>
